--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.534984</v>
+        <v>29.32422766666667</v>
       </c>
       <c r="H2">
-        <v>88.604952</v>
+        <v>87.972683</v>
       </c>
       <c r="I2">
-        <v>0.7456347586542951</v>
+        <v>0.765393337621679</v>
       </c>
       <c r="J2">
-        <v>0.745634758654295</v>
+        <v>0.7653933376216788</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.534984</v>
+        <v>29.32422766666667</v>
       </c>
       <c r="N2">
-        <v>88.604952</v>
+        <v>87.972683</v>
       </c>
       <c r="O2">
-        <v>0.7456347586542951</v>
+        <v>0.765393337621679</v>
       </c>
       <c r="P2">
-        <v>0.745634758654295</v>
+        <v>0.7653933376216788</v>
       </c>
       <c r="Q2">
-        <v>872.3152798802558</v>
+        <v>859.9103282464989</v>
       </c>
       <c r="R2">
-        <v>7850.837518922303</v>
+        <v>7739.19295421849</v>
       </c>
       <c r="S2">
-        <v>0.5559711933134489</v>
+        <v>0.5858269612756536</v>
       </c>
       <c r="T2">
-        <v>0.5559711933134487</v>
+        <v>0.5858269612756533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.534984</v>
+        <v>29.32422766666667</v>
       </c>
       <c r="H3">
-        <v>88.604952</v>
+        <v>87.972683</v>
       </c>
       <c r="I3">
-        <v>0.7456347586542951</v>
+        <v>0.765393337621679</v>
       </c>
       <c r="J3">
-        <v>0.745634758654295</v>
+        <v>0.7653933376216788</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.607584333333333</v>
+        <v>3.607584333333334</v>
       </c>
       <c r="N3">
         <v>10.822753</v>
       </c>
       <c r="O3">
-        <v>0.09107640869925698</v>
+        <v>0.09416176429363919</v>
       </c>
       <c r="P3">
-        <v>0.09107640869925697</v>
+        <v>0.09416176429363918</v>
       </c>
       <c r="Q3">
-        <v>106.5499455636507</v>
+        <v>105.7896243173666</v>
       </c>
       <c r="R3">
-        <v>958.9495100728559</v>
+        <v>952.1066188562991</v>
       </c>
       <c r="S3">
-        <v>0.06790973601957043</v>
+        <v>0.07207078704905434</v>
       </c>
       <c r="T3">
-        <v>0.0679097360195704</v>
+        <v>0.07207078704905431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.534984</v>
+        <v>29.32422766666667</v>
       </c>
       <c r="H4">
-        <v>88.604952</v>
+        <v>87.972683</v>
       </c>
       <c r="I4">
-        <v>0.7456347586542951</v>
+        <v>0.765393337621679</v>
       </c>
       <c r="J4">
-        <v>0.745634758654295</v>
+        <v>0.7653933376216788</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03600933333333333</v>
+        <v>0.066903</v>
       </c>
       <c r="N4">
-        <v>0.108028</v>
+        <v>0.200709</v>
       </c>
       <c r="O4">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="P4">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="Q4">
-        <v>1.063535083850667</v>
+        <v>1.961878803583</v>
       </c>
       <c r="R4">
-        <v>9.571815754655999</v>
+        <v>17.656909232247</v>
       </c>
       <c r="S4">
-        <v>0.0006778453654742146</v>
+        <v>0.001336559708775452</v>
       </c>
       <c r="T4">
-        <v>0.0006778453654742146</v>
+        <v>0.001336559708775451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.534984</v>
+        <v>29.32422766666667</v>
       </c>
       <c r="H5">
-        <v>88.604952</v>
+        <v>87.972683</v>
       </c>
       <c r="I5">
-        <v>0.7456347586542951</v>
+        <v>0.765393337621679</v>
       </c>
       <c r="J5">
-        <v>0.745634758654295</v>
+        <v>0.7653933376216788</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.429442666666667</v>
+        <v>5.312901</v>
       </c>
       <c r="N5">
-        <v>19.288328</v>
+        <v>15.938703</v>
       </c>
       <c r="O5">
-        <v>0.1623165237212124</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="P5">
-        <v>0.1623165237212123</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="Q5">
-        <v>189.8934862889173</v>
+        <v>155.796718494461</v>
       </c>
       <c r="R5">
-        <v>1709.041376600256</v>
+        <v>1402.170466450149</v>
       </c>
       <c r="S5">
-        <v>0.1210288419904703</v>
+        <v>0.1061388788740835</v>
       </c>
       <c r="T5">
-        <v>0.1210288419904703</v>
+        <v>0.1061388788740834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.534984</v>
+        <v>29.32422766666667</v>
       </c>
       <c r="H6">
-        <v>88.604952</v>
+        <v>87.972683</v>
       </c>
       <c r="I6">
-        <v>0.7456347586542951</v>
+        <v>0.765393337621679</v>
       </c>
       <c r="J6">
-        <v>0.745634758654295</v>
+        <v>0.7653933376216788</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.002504333333333333</v>
+        <v>0.001008666666666667</v>
       </c>
       <c r="N6">
-        <v>0.007513</v>
+        <v>0.003026</v>
       </c>
       <c r="O6">
-        <v>6.322393743602185E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="P6">
-        <v>6.322393743602184E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="Q6">
-        <v>0.07396544493066666</v>
+        <v>0.02957837097311111</v>
       </c>
       <c r="R6">
-        <v>0.665689004376</v>
+        <v>0.266205338758</v>
       </c>
       <c r="S6">
-        <v>4.71419653312824E-05</v>
+        <v>2.015071411224468E-05</v>
       </c>
       <c r="T6">
-        <v>4.714196533128239E-05</v>
+        <v>2.015071411224467E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.607584333333333</v>
+        <v>3.607584333333334</v>
       </c>
       <c r="H7">
         <v>10.822753</v>
       </c>
       <c r="I7">
-        <v>0.09107640869925698</v>
+        <v>0.09416176429363919</v>
       </c>
       <c r="J7">
-        <v>0.09107640869925697</v>
+        <v>0.09416176429363918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.534984</v>
+        <v>29.32422766666667</v>
       </c>
       <c r="N7">
-        <v>88.604952</v>
+        <v>87.972683</v>
       </c>
       <c r="O7">
-        <v>0.7456347586542951</v>
+        <v>0.765393337621679</v>
       </c>
       <c r="P7">
-        <v>0.745634758654295</v>
+        <v>0.7653933376216788</v>
       </c>
       <c r="Q7">
-        <v>106.5499455636507</v>
+        <v>105.7896243173666</v>
       </c>
       <c r="R7">
-        <v>958.9495100728559</v>
+        <v>952.1066188562991</v>
       </c>
       <c r="S7">
-        <v>0.06790973601957043</v>
+        <v>0.07207078704905434</v>
       </c>
       <c r="T7">
-        <v>0.0679097360195704</v>
+        <v>0.07207078704905431</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.607584333333333</v>
+        <v>3.607584333333334</v>
       </c>
       <c r="H8">
         <v>10.822753</v>
       </c>
       <c r="I8">
-        <v>0.09107640869925698</v>
+        <v>0.09416176429363919</v>
       </c>
       <c r="J8">
-        <v>0.09107640869925697</v>
+        <v>0.09416176429363918</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,16 +927,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.607584333333333</v>
+        <v>3.607584333333334</v>
       </c>
       <c r="N8">
         <v>10.822753</v>
       </c>
       <c r="O8">
-        <v>0.09107640869925698</v>
+        <v>0.09416176429363919</v>
       </c>
       <c r="P8">
-        <v>0.09107640869925697</v>
+        <v>0.09416176429363918</v>
       </c>
       <c r="Q8">
         <v>13.01466472211211</v>
@@ -945,10 +945,10 @@
         <v>117.131982499009</v>
       </c>
       <c r="S8">
-        <v>0.008294912221554093</v>
+        <v>0.008866437854890864</v>
       </c>
       <c r="T8">
-        <v>0.008294912221554091</v>
+        <v>0.008866437854890863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.607584333333333</v>
+        <v>3.607584333333334</v>
       </c>
       <c r="H9">
         <v>10.822753</v>
       </c>
       <c r="I9">
-        <v>0.09107640869925698</v>
+        <v>0.09416176429363919</v>
       </c>
       <c r="J9">
-        <v>0.09107640869925697</v>
+        <v>0.09416176429363918</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03600933333333333</v>
+        <v>0.066903</v>
       </c>
       <c r="N9">
-        <v>0.108028</v>
+        <v>0.200709</v>
       </c>
       <c r="O9">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="P9">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="Q9">
-        <v>0.1299067067871111</v>
+        <v>0.241358214653</v>
       </c>
       <c r="R9">
-        <v>1.169160361084</v>
+        <v>2.172223931877</v>
       </c>
       <c r="S9">
-        <v>8.279619589119752E-05</v>
+        <v>0.0001644289466291331</v>
       </c>
       <c r="T9">
-        <v>8.279619589119751E-05</v>
+        <v>0.0001644289466291331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.607584333333333</v>
+        <v>3.607584333333334</v>
       </c>
       <c r="H10">
         <v>10.822753</v>
       </c>
       <c r="I10">
-        <v>0.09107640869925698</v>
+        <v>0.09416176429363919</v>
       </c>
       <c r="J10">
-        <v>0.09107640869925697</v>
+        <v>0.09416176429363918</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.429442666666667</v>
+        <v>5.312901</v>
       </c>
       <c r="N10">
-        <v>19.288328</v>
+        <v>15.938703</v>
       </c>
       <c r="O10">
-        <v>0.1623165237212124</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="P10">
-        <v>0.1623165237212123</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="Q10">
-        <v>23.19475663633155</v>
+        <v>19.166738412151</v>
       </c>
       <c r="R10">
-        <v>208.752809726984</v>
+        <v>172.500645709359</v>
       </c>
       <c r="S10">
-        <v>0.01478320605307578</v>
+        <v>0.01305763142123474</v>
       </c>
       <c r="T10">
-        <v>0.01478320605307577</v>
+        <v>0.01305763142123474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.607584333333333</v>
+        <v>3.607584333333334</v>
       </c>
       <c r="H11">
         <v>10.822753</v>
       </c>
       <c r="I11">
-        <v>0.09107640869925698</v>
+        <v>0.09416176429363919</v>
       </c>
       <c r="J11">
-        <v>0.09107640869925697</v>
+        <v>0.09416176429363918</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.002504333333333333</v>
+        <v>0.001008666666666667</v>
       </c>
       <c r="N11">
-        <v>0.007513</v>
+        <v>0.003026</v>
       </c>
       <c r="O11">
-        <v>6.322393743602185E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="P11">
-        <v>6.322393743602184E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="Q11">
-        <v>0.009034593698777777</v>
+        <v>0.003638850064222222</v>
       </c>
       <c r="R11">
-        <v>0.08131134328899998</v>
+        <v>0.032749650578</v>
       </c>
       <c r="S11">
-        <v>5.75820916549938E-06</v>
+        <v>2.479021830111041E-06</v>
       </c>
       <c r="T11">
-        <v>5.758209165499377E-06</v>
+        <v>2.47902183011104E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.03600933333333333</v>
+        <v>0.066903</v>
       </c>
       <c r="H12">
-        <v>0.108028</v>
+        <v>0.200709</v>
       </c>
       <c r="I12">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="J12">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.534984</v>
+        <v>29.32422766666667</v>
       </c>
       <c r="N12">
-        <v>88.604952</v>
+        <v>87.972683</v>
       </c>
       <c r="O12">
-        <v>0.7456347586542951</v>
+        <v>0.765393337621679</v>
       </c>
       <c r="P12">
-        <v>0.745634758654295</v>
+        <v>0.7653933376216788</v>
       </c>
       <c r="Q12">
-        <v>1.063535083850667</v>
+        <v>1.961878803583</v>
       </c>
       <c r="R12">
-        <v>9.571815754655999</v>
+        <v>17.656909232247</v>
       </c>
       <c r="S12">
-        <v>0.0006778453654742146</v>
+        <v>0.001336559708775452</v>
       </c>
       <c r="T12">
-        <v>0.0006778453654742146</v>
+        <v>0.001336559708775451</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.03600933333333333</v>
+        <v>0.066903</v>
       </c>
       <c r="H13">
-        <v>0.108028</v>
+        <v>0.200709</v>
       </c>
       <c r="I13">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="J13">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.607584333333333</v>
+        <v>3.607584333333334</v>
       </c>
       <c r="N13">
         <v>10.822753</v>
       </c>
       <c r="O13">
-        <v>0.09107640869925698</v>
+        <v>0.09416176429363919</v>
       </c>
       <c r="P13">
-        <v>0.09107640869925697</v>
+        <v>0.09416176429363918</v>
       </c>
       <c r="Q13">
-        <v>0.1299067067871111</v>
+        <v>0.241358214653</v>
       </c>
       <c r="R13">
-        <v>1.169160361084</v>
+        <v>2.172223931877</v>
       </c>
       <c r="S13">
-        <v>8.279619589119752E-05</v>
+        <v>0.0001644289466291331</v>
       </c>
       <c r="T13">
-        <v>8.279619589119751E-05</v>
+        <v>0.0001644289466291331</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.03600933333333333</v>
+        <v>0.066903</v>
       </c>
       <c r="H14">
-        <v>0.108028</v>
+        <v>0.200709</v>
       </c>
       <c r="I14">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="J14">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03600933333333333</v>
+        <v>0.066903</v>
       </c>
       <c r="N14">
-        <v>0.108028</v>
+        <v>0.200709</v>
       </c>
       <c r="O14">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="P14">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="Q14">
-        <v>0.001296672087111111</v>
+        <v>0.004476011409000001</v>
       </c>
       <c r="R14">
-        <v>0.011670048784</v>
+        <v>0.04028410268100001</v>
       </c>
       <c r="S14">
-        <v>8.264355150426407E-07</v>
+        <v>3.04935070115586E-06</v>
       </c>
       <c r="T14">
-        <v>8.264355150426407E-07</v>
+        <v>3.049350701155859E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.03600933333333333</v>
+        <v>0.066903</v>
       </c>
       <c r="H15">
-        <v>0.108028</v>
+        <v>0.200709</v>
       </c>
       <c r="I15">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="J15">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.429442666666667</v>
+        <v>5.312901</v>
       </c>
       <c r="N15">
-        <v>19.288328</v>
+        <v>15.938703</v>
       </c>
       <c r="O15">
-        <v>0.1623165237212124</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="P15">
-        <v>0.1623165237212123</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="Q15">
-        <v>0.2315199441315555</v>
+        <v>0.355449015603</v>
       </c>
       <c r="R15">
-        <v>2.083679497184</v>
+        <v>3.199041140427</v>
       </c>
       <c r="S15">
-        <v>0.0001475595149867756</v>
+        <v>0.0002421550362393565</v>
       </c>
       <c r="T15">
-        <v>0.0001475595149867755</v>
+        <v>0.0002421550362393564</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.03600933333333333</v>
+        <v>0.066903</v>
       </c>
       <c r="H16">
-        <v>0.108028</v>
+        <v>0.200709</v>
       </c>
       <c r="I16">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="J16">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1423,28 +1423,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.002504333333333333</v>
+        <v>0.001008666666666667</v>
       </c>
       <c r="N16">
-        <v>0.007513</v>
+        <v>0.003026</v>
       </c>
       <c r="O16">
-        <v>6.322393743602185E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="P16">
-        <v>6.322393743602184E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="Q16">
-        <v>9.017937377777776E-05</v>
+        <v>6.748282599999999E-05</v>
       </c>
       <c r="R16">
-        <v>0.000811614364</v>
+        <v>0.0006073454340000001</v>
       </c>
       <c r="S16">
-        <v>5.747593239267005E-08</v>
+        <v>4.597369934431257E-08</v>
       </c>
       <c r="T16">
-        <v>5.747593239267004E-08</v>
+        <v>4.597369934431256E-08</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.429442666666667</v>
+        <v>5.312901</v>
       </c>
       <c r="H17">
-        <v>19.288328</v>
+        <v>15.938703</v>
       </c>
       <c r="I17">
-        <v>0.1623165237212124</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="J17">
-        <v>0.1623165237212123</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.534984</v>
+        <v>29.32422766666667</v>
       </c>
       <c r="N17">
-        <v>88.604952</v>
+        <v>87.972683</v>
       </c>
       <c r="O17">
-        <v>0.7456347586542951</v>
+        <v>0.765393337621679</v>
       </c>
       <c r="P17">
-        <v>0.745634758654295</v>
+        <v>0.7653933376216788</v>
       </c>
       <c r="Q17">
-        <v>189.8934862889173</v>
+        <v>155.796718494461</v>
       </c>
       <c r="R17">
-        <v>1709.041376600256</v>
+        <v>1402.170466450149</v>
       </c>
       <c r="S17">
-        <v>0.1210288419904703</v>
+        <v>0.1061388788740835</v>
       </c>
       <c r="T17">
-        <v>0.1210288419904703</v>
+        <v>0.1061388788740834</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,16 +1529,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.429442666666667</v>
+        <v>5.312901</v>
       </c>
       <c r="H18">
-        <v>19.288328</v>
+        <v>15.938703</v>
       </c>
       <c r="I18">
-        <v>0.1623165237212124</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="J18">
-        <v>0.1623165237212123</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1547,28 +1547,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.607584333333333</v>
+        <v>3.607584333333334</v>
       </c>
       <c r="N18">
         <v>10.822753</v>
       </c>
       <c r="O18">
-        <v>0.09107640869925698</v>
+        <v>0.09416176429363919</v>
       </c>
       <c r="P18">
-        <v>0.09107640869925697</v>
+        <v>0.09416176429363918</v>
       </c>
       <c r="Q18">
-        <v>23.19475663633155</v>
+        <v>19.166738412151</v>
       </c>
       <c r="R18">
-        <v>208.752809726984</v>
+        <v>172.500645709359</v>
       </c>
       <c r="S18">
-        <v>0.01478320605307578</v>
+        <v>0.01305763142123474</v>
       </c>
       <c r="T18">
-        <v>0.01478320605307577</v>
+        <v>0.01305763142123474</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.429442666666667</v>
+        <v>5.312901</v>
       </c>
       <c r="H19">
-        <v>19.288328</v>
+        <v>15.938703</v>
       </c>
       <c r="I19">
-        <v>0.1623165237212124</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="J19">
-        <v>0.1623165237212123</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1609,28 +1609,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.03600933333333333</v>
+        <v>0.066903</v>
       </c>
       <c r="N19">
-        <v>0.108028</v>
+        <v>0.200709</v>
       </c>
       <c r="O19">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="P19">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="Q19">
-        <v>0.2315199441315555</v>
+        <v>0.355449015603</v>
       </c>
       <c r="R19">
-        <v>2.083679497184</v>
+        <v>3.199041140427</v>
       </c>
       <c r="S19">
-        <v>0.0001475595149867756</v>
+        <v>0.0002421550362393565</v>
       </c>
       <c r="T19">
-        <v>0.0001475595149867755</v>
+        <v>0.0002421550362393564</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.429442666666667</v>
+        <v>5.312901</v>
       </c>
       <c r="H20">
-        <v>19.288328</v>
+        <v>15.938703</v>
       </c>
       <c r="I20">
-        <v>0.1623165237212124</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="J20">
-        <v>0.1623165237212123</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1671,28 +1671,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.429442666666667</v>
+        <v>5.312901</v>
       </c>
       <c r="N20">
-        <v>19.288328</v>
+        <v>15.938703</v>
       </c>
       <c r="O20">
-        <v>0.1623165237212124</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="P20">
-        <v>0.1623165237212123</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="Q20">
-        <v>41.33773300395378</v>
+        <v>28.226917035801</v>
       </c>
       <c r="R20">
-        <v>372.039597035584</v>
+        <v>254.042253322209</v>
       </c>
       <c r="S20">
-        <v>0.02634665387293889</v>
+        <v>0.01923001560753798</v>
       </c>
       <c r="T20">
-        <v>0.02634665387293889</v>
+        <v>0.01923001560753797</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,16 +1715,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.429442666666667</v>
+        <v>5.312901</v>
       </c>
       <c r="H21">
-        <v>19.288328</v>
+        <v>15.938703</v>
       </c>
       <c r="I21">
-        <v>0.1623165237212124</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="J21">
-        <v>0.1623165237212123</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1733,28 +1733,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.002504333333333333</v>
+        <v>0.001008666666666667</v>
       </c>
       <c r="N21">
-        <v>0.007513</v>
+        <v>0.003026</v>
       </c>
       <c r="O21">
-        <v>6.322393743602185E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="P21">
-        <v>6.322393743602184E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="Q21">
-        <v>0.01610146758488889</v>
+        <v>0.005358946142</v>
       </c>
       <c r="R21">
-        <v>0.144913208264</v>
+        <v>0.048230515278</v>
       </c>
       <c r="S21">
-        <v>1.026228974058249E-05</v>
+        <v>3.650863387592448E-06</v>
       </c>
       <c r="T21">
-        <v>1.026228974058248E-05</v>
+        <v>3.650863387592447E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,16 +1777,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.002504333333333333</v>
+        <v>0.001008666666666667</v>
       </c>
       <c r="H22">
-        <v>0.007513</v>
+        <v>0.003026</v>
       </c>
       <c r="I22">
-        <v>6.322393743602185E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="J22">
-        <v>6.322393743602184E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1795,28 +1795,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>29.534984</v>
+        <v>29.32422766666667</v>
       </c>
       <c r="N22">
-        <v>88.604952</v>
+        <v>87.972683</v>
       </c>
       <c r="O22">
-        <v>0.7456347586542951</v>
+        <v>0.765393337621679</v>
       </c>
       <c r="P22">
-        <v>0.745634758654295</v>
+        <v>0.7653933376216788</v>
       </c>
       <c r="Q22">
-        <v>0.07396544493066666</v>
+        <v>0.02957837097311111</v>
       </c>
       <c r="R22">
-        <v>0.665689004376</v>
+        <v>0.266205338758</v>
       </c>
       <c r="S22">
-        <v>4.71419653312824E-05</v>
+        <v>2.015071411224468E-05</v>
       </c>
       <c r="T22">
-        <v>4.714196533128239E-05</v>
+        <v>2.015071411224467E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,16 +1839,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.002504333333333333</v>
+        <v>0.001008666666666667</v>
       </c>
       <c r="H23">
-        <v>0.007513</v>
+        <v>0.003026</v>
       </c>
       <c r="I23">
-        <v>6.322393743602185E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="J23">
-        <v>6.322393743602184E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1857,28 +1857,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.607584333333333</v>
+        <v>3.607584333333334</v>
       </c>
       <c r="N23">
         <v>10.822753</v>
       </c>
       <c r="O23">
-        <v>0.09107640869925698</v>
+        <v>0.09416176429363919</v>
       </c>
       <c r="P23">
-        <v>0.09107640869925697</v>
+        <v>0.09416176429363918</v>
       </c>
       <c r="Q23">
-        <v>0.009034593698777777</v>
+        <v>0.003638850064222222</v>
       </c>
       <c r="R23">
-        <v>0.08131134328899998</v>
+        <v>0.032749650578</v>
       </c>
       <c r="S23">
-        <v>5.75820916549938E-06</v>
+        <v>2.479021830111041E-06</v>
       </c>
       <c r="T23">
-        <v>5.758209165499377E-06</v>
+        <v>2.47902183011104E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,16 +1901,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.002504333333333333</v>
+        <v>0.001008666666666667</v>
       </c>
       <c r="H24">
-        <v>0.007513</v>
+        <v>0.003026</v>
       </c>
       <c r="I24">
-        <v>6.322393743602185E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="J24">
-        <v>6.322393743602184E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1919,28 +1919,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.03600933333333333</v>
+        <v>0.066903</v>
       </c>
       <c r="N24">
-        <v>0.108028</v>
+        <v>0.200709</v>
       </c>
       <c r="O24">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="P24">
-        <v>0.000909084987799623</v>
+        <v>0.001746239016044442</v>
       </c>
       <c r="Q24">
-        <v>9.017937377777776E-05</v>
+        <v>6.748282599999999E-05</v>
       </c>
       <c r="R24">
-        <v>0.000811614364</v>
+        <v>0.0006073454340000001</v>
       </c>
       <c r="S24">
-        <v>5.747593239267005E-08</v>
+        <v>4.597369934431257E-08</v>
       </c>
       <c r="T24">
-        <v>5.747593239267004E-08</v>
+        <v>4.597369934431256E-08</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,16 +1963,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.002504333333333333</v>
+        <v>0.001008666666666667</v>
       </c>
       <c r="H25">
-        <v>0.007513</v>
+        <v>0.003026</v>
       </c>
       <c r="I25">
-        <v>6.322393743602185E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="J25">
-        <v>6.322393743602184E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1981,28 +1981,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.429442666666667</v>
+        <v>5.312901</v>
       </c>
       <c r="N25">
-        <v>19.288328</v>
+        <v>15.938703</v>
       </c>
       <c r="O25">
-        <v>0.1623165237212124</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="P25">
-        <v>0.1623165237212123</v>
+        <v>0.1386723318024831</v>
       </c>
       <c r="Q25">
-        <v>0.01610146758488889</v>
+        <v>0.005358946142</v>
       </c>
       <c r="R25">
-        <v>0.144913208264</v>
+        <v>0.048230515278</v>
       </c>
       <c r="S25">
-        <v>1.026228974058249E-05</v>
+        <v>3.650863387592448E-06</v>
       </c>
       <c r="T25">
-        <v>1.026228974058248E-05</v>
+        <v>3.650863387592447E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,16 +2025,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.002504333333333333</v>
+        <v>0.001008666666666667</v>
       </c>
       <c r="H26">
-        <v>0.007513</v>
+        <v>0.003026</v>
       </c>
       <c r="I26">
-        <v>6.322393743602185E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="J26">
-        <v>6.322393743602184E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2043,28 +2043,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.002504333333333333</v>
+        <v>0.001008666666666667</v>
       </c>
       <c r="N26">
-        <v>0.007513</v>
+        <v>0.003026</v>
       </c>
       <c r="O26">
-        <v>6.322393743602185E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="P26">
-        <v>6.322393743602184E-05</v>
+        <v>2.632726615423563E-05</v>
       </c>
       <c r="Q26">
-        <v>6.271685444444444E-06</v>
+        <v>1.017408444444444E-06</v>
       </c>
       <c r="R26">
-        <v>5.644516899999999E-05</v>
+        <v>9.156676000000001E-06</v>
       </c>
       <c r="S26">
-        <v>3.997266264914005E-09</v>
+        <v>6.931249431559612E-10</v>
       </c>
       <c r="T26">
-        <v>3.997266264914003E-09</v>
+        <v>6.93124943155961E-10</v>
       </c>
     </row>
   </sheetData>
